--- a/src/assets/Test-Reporte_Elanco/Correspondencia.xlsx
+++ b/src/assets/Test-Reporte_Elanco/Correspondencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catta\Documents\COMPSCI\repos\elanco-infome-imvixa\src\assets\Test-Reporte_Elanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D4D36-1DE6-4427-9EB3-5CE8DEC8CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8B37E-9FA6-4BFF-A16D-75BEE8E310FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91017217-53FF-44E1-9B9C-8DF5515768FF}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{91017217-53FF-44E1-9B9C-8DF5515768FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Correspondencia" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Correspondencia de información entre planillas originales y planillas nuevas</t>
   </si>
@@ -228,9 +228,6 @@
     <t>¿Cómo resolvemos si fue tratado con alfaflux?</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Sample Origin</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>Elanco id.</t>
   </si>
   <si>
-    <t>¿Es necesario verificar el estado de las filas?</t>
-  </si>
-  <si>
     <t>¿Cómo manejamos los datos de esta hoja?</t>
   </si>
   <si>
@@ -262,6 +256,9 @@
   </si>
   <si>
     <t>fabricante</t>
+  </si>
+  <si>
+    <t>¿Es necesario verificar el estado de las filas? No es necesario</t>
   </si>
 </sst>
 </file>
@@ -702,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2321B4-B173-4D5F-94CC-4D9C84B1E5D0}">
-  <dimension ref="B2:K64"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -850,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -877,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -924,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -991,76 +988,76 @@
         <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="11" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
       <c r="C44" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
       <c r="C47" s="11" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1069,7 +1066,7 @@
         <v>65</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -1078,7 +1075,7 @@
         <v>66</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1087,7 +1084,7 @@
         <v>67</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -1096,101 +1093,92 @@
         <v>68</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
+    <row r="54" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="10" t="s">
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
-        <v>2</v>
-      </c>
+      <c r="B58" s="14"/>
       <c r="C58" s="11" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
       <c r="C59" s="11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
       <c r="C60" s="11" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
       <c r="C61" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
-      <c r="C63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="B57:B63"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B18:B25"/>
   </mergeCells>
